--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008838</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.58</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008839</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.58</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>21.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>21.52</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.62</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>008838</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>167702</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>德邦量化优选股票(LOF)A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>21.31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>167703</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>德邦量化优选股票(LOF)C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>167702</t>
+          <t>008839</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)A</t>
+          <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>167703</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)C</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -922,15 +1082,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>28.97</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>20.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003806</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合C</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>003806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>华安新恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>006992</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006992</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉合锦创优势精选混合</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,1882 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,4 +3404,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3412,7 +3413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,17 +3424,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3443,14 +3464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.71</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3459,14 +3502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3475,14 +3540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3491,13 +3578,2923 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9885</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6393,7 +6394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6404,17 +6405,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6424,14 +6445,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>77</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.73</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.4379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6440,14 +6483,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.71</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6456,14 +6521,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6472,14 +6559,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6488,13 +6597,9361 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3983</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3133</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1947</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1538</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0866</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9756</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8839</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7796</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7513</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7211</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6891</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6399</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6304</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6185</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5579</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>43.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>562300</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银华中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15834,7 +15835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15845,17 +15846,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15865,14 +15886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>247</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82.14</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>234.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.4265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15881,14 +15924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.73</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -15897,14 +15962,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.71</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -15913,14 +16000,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -15929,14 +16038,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -15945,13 +16076,4245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000414</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003115</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003116</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014216</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>22.66</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="D3" t="n">
-        <v>82.14</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="D4" t="n">
-        <v>24.73</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -600,6 +617,2526 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4945,7 +7482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14385,7 +16922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17365,7 +19902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19243,7 +21780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19413,7 +21950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19659,7 +22196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601985-中国核电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>10.28</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>22.66</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>82.14</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="D5" t="n">
-        <v>24.73</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D6" t="n">
-        <v>6.71</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -616,7 +633,2963 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4640</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000556</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000557</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3136,7 +6109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7482,7 +10455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16922,7 +19895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19902,7 +22875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21780,7 +24753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21950,7 +24923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22194,668 +25167,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1312</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1208</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>167702</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>167703</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>